--- a/Envio correos/Correos personalizados Smart Forests 2 new.xlsx
+++ b/Envio correos/Correos personalizados Smart Forests 2 new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa631587986ce8df/Documentos/VS Code/Python/Envio correos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{6E552543-A674-4774-A4BC-1490E40AB4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C42904-D875-4F15-8E9D-88286244204F}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{6E552543-A674-4774-A4BC-1490E40AB4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E036773-3DE1-4C3A-A007-36A9F596C109}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2BC6CA2F-7348-4FAA-ABCC-A6ECB71E7F0C}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t>Genero</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Felipe</t>
   </si>
   <si>
     <t>felipe.guarda@fundacionmaradentro.cl</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -498,13 +498,13 @@
     </row>
     <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">

--- a/Envio correos/Correos personalizados Smart Forests 2 new.xlsx
+++ b/Envio correos/Correos personalizados Smart Forests 2 new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa631587986ce8df/Documentos/VS Code/Python/Envio correos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{6E552543-A674-4774-A4BC-1490E40AB4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E036773-3DE1-4C3A-A007-36A9F596C109}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{6E552543-A674-4774-A4BC-1490E40AB4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AB3BFD4-825E-4C68-809A-3D5F88645EF0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2BC6CA2F-7348-4FAA-ABCC-A6ECB71E7F0C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Nombre</t>
   </si>
@@ -45,20 +45,47 @@
     <t>Genero</t>
   </si>
   <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>felipe.guarda@fundacionmaradentro.cl</t>
-  </si>
-  <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>pagriv@gmail.com</t>
+  </si>
+  <si>
+    <t>petiara@uc.cl</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>jg899@cam.ac.uk</t>
+  </si>
+  <si>
+    <t>Tomás</t>
+  </si>
+  <si>
+    <t>tomas.altamirano@fundacionmaradentro.cl</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>maya.errazuriz@fundacionmaradentro.cl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,25 +102,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -134,29 +147,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A3FF90-6E4D-4C96-9F3A-53894E4E1CA2}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -485,38 +487,73 @@
     <col min="7" max="7" width="55.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="1"/>
+    <row r="6" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{465233BF-20FC-46D4-9C4D-012D9A0E48FB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>